--- a/mbs-perturbation/mega/welm/nearmiss/WELM_lin_nearmiss_results.xlsx
+++ b/mbs-perturbation/mega/welm/nearmiss/WELM_lin_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8020833333333334</v>
+        <v>0.8505747126436781</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7865168539325842</v>
+        <v>0.8354430379746837</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8601823708206687</v>
+        <v>0.9318181818181819</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7608695652173914</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8476042590949422</v>
+        <v>0.946031746031746</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8526315789473684</v>
+        <v>0.8735632183908046</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7551020408163265</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8409090909090908</v>
+        <v>0.8705882352941177</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9465394853593612</v>
+        <v>0.9419406150583245</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8736842105263158</v>
+        <v>0.8505747126436781</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8571428571428572</v>
+        <v>0.8395061728395062</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9021836007130124</v>
+        <v>0.8711640211640213</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8526315789473684</v>
+        <v>0.8023255813953488</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8510638297872342</v>
+        <v>0.8131868131868133</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8791111111111111</v>
+        <v>0.8779761904761905</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8446271929824561</v>
+        <v>0.8478214381181501</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7696878277002501</v>
+        <v>0.8063492793017565</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8318324087072945</v>
+        <v>0.8417448518590241</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8871241654198192</v>
+        <v>0.913786150909693</v>
       </c>
     </row>
   </sheetData>
